--- a/vms_ppt/vulnerability_report_20250901_223408.xlsx
+++ b/vms_ppt/vulnerability_report_20250901_223408.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anekant.jain\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C04BC5-9208-42FD-95FF-7CA0B17B1BE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E989616-68B3-41A3-BC39-A7C295BE6F51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete_Analysis" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Summary_Statistics" sheetId="4" r:id="rId4"/>
     <sheet name="Priority_Matrix" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2788,12 +2788,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD62"/>
+  <dimension ref="A1:BD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AR1" sqref="AR1"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3028,10 +3028,10 @@
         <v>69</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>105</v>
@@ -3041,7 +3041,7 @@
         <v>108</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>111</v>
@@ -3053,19 +3053,19 @@
         <v>115</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
@@ -3076,7 +3076,7 @@
         <v>154</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8" t="s">
@@ -3088,67 +3088,67 @@
       </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AP2" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="AV2" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="AW2" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX2" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY2" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ2" s="5" t="s">
         <v>594</v>
@@ -3157,7 +3157,7 @@
         <v>595</v>
       </c>
       <c r="BB2" s="6" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="BC2" s="6" t="s">
         <v>642</v>
@@ -3175,10 +3175,10 @@
         <v>69</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>105</v>
@@ -3197,14 +3197,14 @@
         <v>113</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
@@ -3212,7 +3212,7 @@
         <v>107</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -3223,7 +3223,7 @@
         <v>154</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8" t="s">
@@ -3235,13 +3235,13 @@
       </c>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AH3" s="8" t="s">
         <v>303</v>
@@ -3250,28 +3250,28 @@
         <v>303</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AK3" s="8" t="s">
         <v>325</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AP3" s="8" t="s">
         <v>469</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="AR3" s="5" t="s">
         <v>525</v>
@@ -3283,7 +3283,7 @@
         <v>534</v>
       </c>
       <c r="AU3" s="5" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>468</v>
@@ -3292,10 +3292,10 @@
         <v>587</v>
       </c>
       <c r="AX3" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY3" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ3" s="5" t="s">
         <v>594</v>
@@ -3304,62 +3304,62 @@
         <v>595</v>
       </c>
       <c r="BB3" s="6" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="BC3" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>111</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
@@ -3367,10 +3367,10 @@
         <v>117</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8" t="s">
@@ -3381,76 +3381,132 @@
         <v>179</v>
       </c>
       <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
+      <c r="AE4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="AH4" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="5"/>
-    </row>
-    <row r="5" spans="1:56" ht="43.2" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU4" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="AX4" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="AY4" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="AZ4" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="BA4" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>111</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
@@ -3458,10 +3514,10 @@
         <v>117</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8" t="s">
@@ -3472,42 +3528,98 @@
         <v>179</v>
       </c>
       <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
+      <c r="AE5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="AH5" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI5" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="5"/>
+        <v>310</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="AX5" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="AZ5" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="BA5" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="BB5" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="BC5" s="6" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="6" spans="1:56" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>105</v>
@@ -3526,14 +3638,14 @@
         <v>113</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
@@ -3541,7 +3653,7 @@
         <v>107</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
@@ -3549,10 +3661,10 @@
         <v>117</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8" t="s">
@@ -3564,13 +3676,13 @@
       </c>
       <c r="AD6" s="8"/>
       <c r="AE6" s="8" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AH6" s="8" t="s">
         <v>303</v>
@@ -3579,40 +3691,40 @@
         <v>303</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AK6" s="8" t="s">
         <v>325</v>
       </c>
       <c r="AL6" s="5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AM6" s="5" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AP6" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="AR6" s="5" t="s">
         <v>525</v>
       </c>
       <c r="AS6" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AT6" s="5" t="s">
         <v>534</v>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="AV6" s="5" t="s">
         <v>468</v>
@@ -3621,10 +3733,10 @@
         <v>587</v>
       </c>
       <c r="AX6" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY6" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ6" s="5" t="s">
         <v>594</v>
@@ -3633,64 +3745,64 @@
         <v>595</v>
       </c>
       <c r="BB6" s="6" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="BC6" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>111</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
@@ -3698,10 +3810,10 @@
         <v>117</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8" t="s">
@@ -3712,78 +3824,134 @@
         <v>179</v>
       </c>
       <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
+      <c r="AE7" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="AH7" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI7" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ7" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7" s="5"/>
-    </row>
-    <row r="8" spans="1:56" ht="43.2" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AN7" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="AO7" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP7" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="AQ7" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="AR7" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS7" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="AT7" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU7" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="AV7" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW7" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="AX7" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="AY7" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="AZ7" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="BA7" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="BB7" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="BC7" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>111</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
@@ -3791,10 +3959,10 @@
         <v>117</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8" t="s">
@@ -3805,42 +3973,100 @@
         <v>179</v>
       </c>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
+      <c r="AE8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="AH8" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI8" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ8" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="5"/>
+        <v>318</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="AP8" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="BB8" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="BC8" s="6" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="9" spans="1:56" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C9" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>105</v>
@@ -3850,7 +4076,7 @@
         <v>108</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>111</v>
@@ -3859,22 +4085,22 @@
         <v>113</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
@@ -3882,10 +4108,10 @@
         <v>117</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8" t="s">
@@ -3897,13 +4123,13 @@
       </c>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AH9" s="8" t="s">
         <v>303</v>
@@ -3912,52 +4138,52 @@
         <v>303</v>
       </c>
       <c r="AJ9" s="8" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AK9" s="8" t="s">
         <v>324</v>
       </c>
       <c r="AL9" s="5" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="AM9" s="5" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="AN9" s="5" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="AO9" s="5" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="AP9" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ9" s="5" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="AR9" s="5" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="AS9" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT9" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AU9" s="5" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="AV9" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AW9" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX9" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY9" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ9" s="5" t="s">
         <v>594</v>
@@ -3966,28 +4192,30 @@
         <v>595</v>
       </c>
       <c r="BB9" s="6" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="BC9" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="10" spans="1:56" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C10" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>105</v>
@@ -3997,7 +4225,7 @@
         <v>108</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>111</v>
@@ -4006,22 +4234,22 @@
         <v>113</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
@@ -4029,10 +4257,10 @@
         <v>117</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8" t="s">
@@ -4044,13 +4272,13 @@
       </c>
       <c r="AD10" s="8"/>
       <c r="AE10" s="8" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AH10" s="8" t="s">
         <v>303</v>
@@ -4059,52 +4287,52 @@
         <v>303</v>
       </c>
       <c r="AJ10" s="8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AK10" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="AM10" s="5" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="AN10" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO10" s="5" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="AP10" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ10" s="5" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="AR10" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AS10" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT10" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AU10" s="5" t="s">
-        <v>543</v>
+        <v>570</v>
       </c>
       <c r="AV10" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AW10" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX10" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY10" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ10" s="5" t="s">
         <v>594</v>
@@ -4113,7 +4341,7 @@
         <v>595</v>
       </c>
       <c r="BB10" s="6" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="BC10" s="6" t="s">
         <v>642</v>
@@ -4121,20 +4349,22 @@
     </row>
     <row r="11" spans="1:56" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C11" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>105</v>
@@ -4144,7 +4374,7 @@
         <v>108</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>111</v>
@@ -4153,22 +4383,22 @@
         <v>113</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
@@ -4176,10 +4406,10 @@
         <v>117</v>
       </c>
       <c r="X11" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8" t="s">
@@ -4191,13 +4421,13 @@
       </c>
       <c r="AD11" s="8"/>
       <c r="AE11" s="8" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="AG11" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AH11" s="8" t="s">
         <v>303</v>
@@ -4206,52 +4436,52 @@
         <v>303</v>
       </c>
       <c r="AJ11" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AK11" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AL11" s="5" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="AM11" s="5" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="AN11" s="5" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="AO11" s="5" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="AP11" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ11" s="5" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="AR11" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AS11" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT11" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AU11" s="5" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="AV11" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AW11" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX11" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY11" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ11" s="5" t="s">
         <v>594</v>
@@ -4260,7 +4490,7 @@
         <v>595</v>
       </c>
       <c r="BB11" s="6" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="BC11" s="6" t="s">
         <v>642</v>
@@ -4268,23 +4498,25 @@
     </row>
     <row r="12" spans="1:56" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="C12" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
@@ -4300,14 +4532,14 @@
         <v>113</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -4315,7 +4547,7 @@
         <v>107</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
@@ -4323,10 +4555,10 @@
         <v>117</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8" t="s">
@@ -4338,67 +4570,67 @@
       </c>
       <c r="AD12" s="8"/>
       <c r="AE12" s="8" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AH12" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI12" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ12" s="8" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AK12" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL12" s="5" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="AM12" s="5" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="AN12" s="5" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AO12" s="5" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="AP12" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AQ12" s="5" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="AR12" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AS12" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AT12" s="5" t="s">
         <v>534</v>
       </c>
       <c r="AU12" s="5" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="AV12" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AW12" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX12" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY12" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ12" s="5" t="s">
         <v>594</v>
@@ -4407,7 +4639,7 @@
         <v>595</v>
       </c>
       <c r="BB12" s="6" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="BC12" s="6" t="s">
         <v>642</v>
@@ -4415,30 +4647,32 @@
     </row>
     <row r="13" spans="1:56" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C13" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>111</v>
@@ -4447,14 +4681,14 @@
         <v>113</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O13" s="8"/>
       <c r="P13" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
@@ -4462,7 +4696,7 @@
         <v>107</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
@@ -4470,10 +4704,10 @@
         <v>117</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Y13" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8" t="s">
@@ -4485,67 +4719,67 @@
       </c>
       <c r="AD13" s="8"/>
       <c r="AE13" s="8" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AG13" s="5" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AH13" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI13" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ13" s="8" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AK13" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL13" s="5" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="AM13" s="5" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="AN13" s="5" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AO13" s="5" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="AP13" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AQ13" s="5" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="AR13" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AS13" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AT13" s="5" t="s">
         <v>534</v>
       </c>
       <c r="AU13" s="5" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="AV13" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AW13" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX13" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY13" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ13" s="5" t="s">
         <v>594</v>
@@ -4554,7 +4788,7 @@
         <v>595</v>
       </c>
       <c r="BB13" s="6" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="BC13" s="6" t="s">
         <v>642</v>
@@ -4562,30 +4796,32 @@
     </row>
     <row r="14" spans="1:56" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C14" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>111</v>
@@ -4597,19 +4833,19 @@
         <v>115</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
@@ -4617,10 +4853,10 @@
         <v>117</v>
       </c>
       <c r="X14" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8" t="s">
@@ -4632,67 +4868,67 @@
       </c>
       <c r="AD14" s="8"/>
       <c r="AE14" s="8" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AH14" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI14" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ14" s="8" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AK14" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="AM14" s="5" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="AN14" s="5" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AO14" s="5" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="AP14" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AQ14" s="5" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="AR14" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AS14" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AT14" s="5" t="s">
         <v>534</v>
       </c>
       <c r="AU14" s="5" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="AV14" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AW14" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX14" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY14" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ14" s="5" t="s">
         <v>594</v>
@@ -4701,13 +4937,13 @@
         <v>595</v>
       </c>
       <c r="BB14" s="6" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="BC14" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="15" spans="1:56" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>56</v>
       </c>
@@ -4719,10 +4955,10 @@
         <v>69</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>105</v>
@@ -4741,14 +4977,14 @@
         <v>113</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
@@ -4756,7 +4992,7 @@
         <v>107</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
@@ -4767,7 +5003,7 @@
         <v>154</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8" t="s">
@@ -4779,13 +5015,13 @@
       </c>
       <c r="AD15" s="8"/>
       <c r="AE15" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AG15" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AH15" s="8" t="s">
         <v>303</v>
@@ -4794,28 +5030,28 @@
         <v>303</v>
       </c>
       <c r="AJ15" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AK15" s="8" t="s">
         <v>325</v>
       </c>
       <c r="AL15" s="5" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AM15" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AN15" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AO15" s="5" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AP15" s="8" t="s">
         <v>469</v>
       </c>
       <c r="AQ15" s="5" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AR15" s="5" t="s">
         <v>525</v>
@@ -4827,7 +5063,7 @@
         <v>534</v>
       </c>
       <c r="AU15" s="5" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="AV15" s="5" t="s">
         <v>468</v>
@@ -4836,10 +5072,10 @@
         <v>587</v>
       </c>
       <c r="AX15" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AY15" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AZ15" s="5" t="s">
         <v>594</v>
@@ -4848,7 +5084,7 @@
         <v>595</v>
       </c>
       <c r="BB15" s="6" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="BC15" s="6" t="s">
         <v>642</v>
@@ -4856,20 +5092,20 @@
     </row>
     <row r="16" spans="1:56" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>105</v>
@@ -4888,14 +5124,14 @@
         <v>113</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
@@ -4903,7 +5139,7 @@
         <v>107</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
@@ -4911,10 +5147,10 @@
         <v>117</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8" t="s">
@@ -4926,13 +5162,13 @@
       </c>
       <c r="AD16" s="8"/>
       <c r="AE16" s="8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AH16" s="8" t="s">
         <v>303</v>
@@ -4941,40 +5177,40 @@
         <v>303</v>
       </c>
       <c r="AJ16" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AK16" s="8" t="s">
         <v>325</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AM16" s="5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AN16" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AO16" s="5" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="AP16" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AQ16" s="5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AR16" s="5" t="s">
         <v>525</v>
       </c>
       <c r="AS16" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AT16" s="5" t="s">
         <v>534</v>
       </c>
       <c r="AU16" s="5" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="AV16" s="5" t="s">
         <v>468</v>
@@ -4983,10 +5219,10 @@
         <v>587</v>
       </c>
       <c r="AX16" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY16" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ16" s="5" t="s">
         <v>594</v>
@@ -4995,28 +5231,30 @@
         <v>595</v>
       </c>
       <c r="BB16" s="6" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="BC16" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="17" spans="1:55" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="C17" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>105</v>
@@ -5035,10 +5273,10 @@
         <v>113</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="5" t="s">
@@ -5047,10 +5285,10 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
@@ -5058,10 +5296,10 @@
         <v>117</v>
       </c>
       <c r="X17" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8" t="s">
@@ -5073,58 +5311,58 @@
       </c>
       <c r="AD17" s="8"/>
       <c r="AE17" s="8" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AF17" s="5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="AG17" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AH17" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI17" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ17" s="8" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AK17" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL17" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AM17" s="5" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AN17" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AO17" s="5" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AP17" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="AQ17" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="AR17" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS17" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="AT17" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU17" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="AV17" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="AQ17" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="AR17" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="AS17" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="AT17" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="AU17" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="AV17" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="AW17" s="5" t="s">
         <v>587</v>
@@ -5142,7 +5380,7 @@
         <v>595</v>
       </c>
       <c r="BB17" s="6" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="BC17" s="6" t="s">
         <v>642</v>
@@ -5150,20 +5388,22 @@
     </row>
     <row r="18" spans="1:55" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="C18" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>105</v>
@@ -5182,10 +5422,10 @@
         <v>113</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="5" t="s">
@@ -5197,7 +5437,7 @@
         <v>107</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
@@ -5205,10 +5445,10 @@
         <v>117</v>
       </c>
       <c r="X18" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8" t="s">
@@ -5220,58 +5460,58 @@
       </c>
       <c r="AD18" s="8"/>
       <c r="AE18" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AF18" s="5" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AH18" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI18" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ18" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK18" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL18" s="5" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AM18" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AN18" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AO18" s="5" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="AP18" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="AQ18" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="AR18" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS18" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="AT18" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU18" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="AV18" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="AQ18" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="AR18" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="AS18" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="AT18" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="AU18" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="AV18" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="AW18" s="5" t="s">
         <v>587</v>
@@ -5289,28 +5529,30 @@
         <v>595</v>
       </c>
       <c r="BB18" s="6" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="BC18" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="19" spans="1:55" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C19" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>105</v>
@@ -5320,7 +5562,7 @@
         <v>108</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>111</v>
@@ -5329,10 +5571,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="5" t="s">
@@ -5344,7 +5586,7 @@
         <v>107</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
@@ -5352,10 +5594,10 @@
         <v>117</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Y19" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8" t="s">
@@ -5367,58 +5609,58 @@
       </c>
       <c r="AD19" s="8"/>
       <c r="AE19" s="8" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AF19" s="5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AG19" s="5" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AH19" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI19" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ19" s="8" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AK19" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL19" s="5" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AM19" s="5" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AN19" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AO19" s="5" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="AP19" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="AQ19" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="AR19" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS19" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="AT19" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="AU19" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="AV19" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="AQ19" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="AR19" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="AS19" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="AT19" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="AU19" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="AV19" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="AW19" s="5" t="s">
         <v>587</v>
@@ -5436,13 +5678,13 @@
         <v>595</v>
       </c>
       <c r="BB19" s="6" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="BC19" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="20" spans="1:55" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>56</v>
       </c>
@@ -5454,10 +5696,10 @@
         <v>69</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>105</v>
@@ -5479,7 +5721,7 @@
         <v>115</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="5" t="s">
@@ -5491,7 +5733,7 @@
         <v>107</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
@@ -5502,7 +5744,7 @@
         <v>154</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8" t="s">
@@ -5514,46 +5756,46 @@
       </c>
       <c r="AD20" s="8"/>
       <c r="AE20" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG20" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AH20" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI20" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ20" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AK20" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AL20" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AM20" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN20" s="5" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AO20" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AP20" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ20" s="5" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AR20" s="5" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AS20" s="5" t="s">
         <v>530</v>
@@ -5562,7 +5804,7 @@
         <v>533</v>
       </c>
       <c r="AU20" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AV20" s="5" t="s">
         <v>470</v>
@@ -5583,13 +5825,13 @@
         <v>595</v>
       </c>
       <c r="BB20" s="6" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="BC20" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="21" spans="1:55" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>56</v>
       </c>
@@ -5601,10 +5843,10 @@
         <v>69</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>105</v>
@@ -5626,7 +5868,7 @@
         <v>115</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="5" t="s">
@@ -5638,7 +5880,7 @@
         <v>107</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
@@ -5649,7 +5891,7 @@
         <v>154</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8" t="s">
@@ -5661,53 +5903,55 @@
       </c>
       <c r="AD21" s="8"/>
       <c r="AE21" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="AH21" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI21" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ21" s="8" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AK21" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL21" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN21" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="AO21" s="5"/>
+        <v>407</v>
+      </c>
+      <c r="AO21" s="5" t="s">
+        <v>441</v>
+      </c>
       <c r="AP21" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AQ21" s="5" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AR21" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AS21" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AT21" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AU21" s="5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AV21" s="5" t="s">
         <v>470</v>
@@ -5728,30 +5972,28 @@
         <v>595</v>
       </c>
       <c r="BB21" s="6" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="BC21" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="22" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:55" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>61</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>105</v>
@@ -5770,10 +6012,10 @@
         <v>113</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="O22" s="8"/>
       <c r="P22" s="5" t="s">
@@ -5782,10 +6024,10 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
@@ -5793,10 +6035,10 @@
         <v>117</v>
       </c>
       <c r="X22" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y22" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8" t="s">
@@ -5808,13 +6050,13 @@
       </c>
       <c r="AD22" s="8"/>
       <c r="AE22" s="8" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="AG22" s="5" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AH22" s="8" t="s">
         <v>303</v>
@@ -5823,43 +6065,43 @@
         <v>303</v>
       </c>
       <c r="AJ22" s="8" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="AK22" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL22" s="5" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="AM22" s="5" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="AN22" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO22" s="5" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="AP22" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AQ22" s="5" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="AR22" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AS22" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AT22" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU22" s="5" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="AV22" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AW22" s="5" t="s">
         <v>587</v>
@@ -5877,7 +6119,7 @@
         <v>595</v>
       </c>
       <c r="BB22" s="6" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="BC22" s="6" t="s">
         <v>642</v>
@@ -5955,13 +6197,13 @@
       </c>
       <c r="AD23" s="8"/>
       <c r="AE23" s="8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AF23" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AH23" s="8" t="s">
         <v>303</v>
@@ -5970,40 +6212,40 @@
         <v>303</v>
       </c>
       <c r="AJ23" s="8" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="AK23" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL23" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AM23" s="5" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="AN23" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AO23" s="5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AP23" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AQ23" s="5" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="AR23" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AS23" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AT23" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AV23" s="5" t="s">
         <v>470</v>
@@ -6024,13 +6266,13 @@
         <v>595</v>
       </c>
       <c r="BB23" s="6" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="BC23" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="24" spans="1:55" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:55" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
@@ -6102,13 +6344,13 @@
       </c>
       <c r="AD24" s="8"/>
       <c r="AE24" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF24" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AG24" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AH24" s="8" t="s">
         <v>303</v>
@@ -6117,40 +6359,40 @@
         <v>303</v>
       </c>
       <c r="AJ24" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AK24" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL24" s="5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AM24" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AN24" s="5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AO24" s="5" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AP24" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AQ24" s="5" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AR24" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AS24" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AT24" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AU24" s="5" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AV24" s="5" t="s">
         <v>470</v>
@@ -6171,13 +6413,13 @@
         <v>595</v>
       </c>
       <c r="BB24" s="6" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="BC24" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="25" spans="1:55" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:55" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>56</v>
       </c>
@@ -6189,10 +6431,10 @@
         <v>69</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>105</v>
@@ -6202,7 +6444,7 @@
         <v>108</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>111</v>
@@ -6214,7 +6456,7 @@
         <v>115</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="5" t="s">
@@ -6223,10 +6465,10 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
@@ -6237,7 +6479,7 @@
         <v>154</v>
       </c>
       <c r="Y25" s="8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8" t="s">
@@ -6249,43 +6491,43 @@
       </c>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="AF25" s="5" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AH25" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI25" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ25" s="8" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AK25" s="8" t="s">
         <v>324</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="AM25" s="5" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="AN25" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AO25" s="5" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="AP25" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ25" s="5" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="AR25" s="5" t="s">
         <v>524</v>
@@ -6297,7 +6539,7 @@
         <v>533</v>
       </c>
       <c r="AU25" s="5" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="AV25" s="5" t="s">
         <v>470</v>
@@ -6318,7 +6560,7 @@
         <v>595</v>
       </c>
       <c r="BB25" s="6" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="BC25" s="6" t="s">
         <v>642</v>
@@ -6336,10 +6578,10 @@
         <v>69</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>105</v>
@@ -6361,7 +6603,7 @@
         <v>115</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="5" t="s">
@@ -6373,7 +6615,7 @@
         <v>107</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
@@ -6384,7 +6626,7 @@
         <v>154</v>
       </c>
       <c r="Y26" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8" t="s">
@@ -6396,13 +6638,13 @@
       </c>
       <c r="AD26" s="8"/>
       <c r="AE26" s="8" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="AG26" s="5" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AH26" s="8" t="s">
         <v>303</v>
@@ -6411,40 +6653,40 @@
         <v>303</v>
       </c>
       <c r="AJ26" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AK26" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL26" s="5" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="AM26" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN26" s="5" t="s">
         <v>402</v>
       </c>
       <c r="AO26" s="5" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="AP26" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AQ26" s="5" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="AR26" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AS26" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AT26" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AU26" s="5" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="AV26" s="5" t="s">
         <v>470</v>
@@ -6465,13 +6707,13 @@
         <v>595</v>
       </c>
       <c r="BB26" s="6" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="BC26" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="27" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:55" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>56</v>
       </c>
@@ -6483,10 +6725,10 @@
         <v>69</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>105</v>
@@ -6508,7 +6750,7 @@
         <v>115</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O27" s="8"/>
       <c r="P27" s="5" t="s">
@@ -6520,7 +6762,7 @@
         <v>107</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
@@ -6531,7 +6773,7 @@
         <v>154</v>
       </c>
       <c r="Y27" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8" t="s">
@@ -6543,13 +6785,13 @@
       </c>
       <c r="AD27" s="8"/>
       <c r="AE27" s="8" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="AF27" s="5" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="AG27" s="5" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AH27" s="8" t="s">
         <v>303</v>
@@ -6558,31 +6800,31 @@
         <v>303</v>
       </c>
       <c r="AJ27" s="8" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AK27" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL27" s="5" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="AM27" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AN27" s="5" t="s">
         <v>402</v>
       </c>
       <c r="AO27" s="5" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="AP27" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ27" s="5" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="AR27" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AS27" s="5" t="s">
         <v>530</v>
@@ -6591,7 +6833,7 @@
         <v>533</v>
       </c>
       <c r="AU27" s="5" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="AV27" s="5" t="s">
         <v>470</v>
@@ -6612,7 +6854,7 @@
         <v>595</v>
       </c>
       <c r="BB27" s="6" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="BC27" s="6" t="s">
         <v>642</v>
@@ -6620,25 +6862,23 @@
     </row>
     <row r="28" spans="1:55" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>62</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8" t="s">
@@ -6654,10 +6894,10 @@
         <v>113</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O28" s="8"/>
       <c r="P28" s="5" t="s">
@@ -6669,7 +6909,7 @@
         <v>107</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
@@ -6677,10 +6917,10 @@
         <v>117</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Y28" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8" t="s">
@@ -6692,43 +6932,43 @@
       </c>
       <c r="AD28" s="8"/>
       <c r="AE28" s="8" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="AH28" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI28" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ28" s="8" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AK28" s="8" t="s">
         <v>326</v>
       </c>
       <c r="AL28" s="5" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="AM28" s="5" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AN28" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AO28" s="5" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="AP28" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ28" s="5" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="AR28" s="5" t="s">
         <v>527</v>
@@ -6737,10 +6977,10 @@
         <v>530</v>
       </c>
       <c r="AT28" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU28" s="5" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="AV28" s="5" t="s">
         <v>470</v>
@@ -6761,7 +7001,7 @@
         <v>595</v>
       </c>
       <c r="BB28" s="6" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="BC28" s="6" t="s">
         <v>642</v>
@@ -6769,22 +7009,22 @@
     </row>
     <row r="29" spans="1:55" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>105</v>
@@ -6794,7 +7034,7 @@
         <v>108</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>111</v>
@@ -6803,10 +7043,10 @@
         <v>113</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="O29" s="8"/>
       <c r="P29" s="5" t="s">
@@ -6815,10 +7055,10 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
@@ -6826,10 +7066,10 @@
         <v>117</v>
       </c>
       <c r="X29" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y29" s="8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8" t="s">
@@ -6841,13 +7081,13 @@
       </c>
       <c r="AD29" s="8"/>
       <c r="AE29" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF29" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG29" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AH29" s="8" t="s">
         <v>303</v>
@@ -6856,43 +7096,43 @@
         <v>303</v>
       </c>
       <c r="AJ29" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AK29" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL29" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM29" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN29" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO29" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AP29" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AQ29" s="5" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="AR29" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AS29" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AT29" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU29" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AV29" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AW29" s="5" t="s">
         <v>587</v>
@@ -6910,13 +7150,13 @@
         <v>595</v>
       </c>
       <c r="BB29" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="BC29" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="30" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:55" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>60</v>
       </c>
@@ -6930,20 +7170,20 @@
         <v>72</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>111</v>
@@ -6952,10 +7192,10 @@
         <v>113</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O30" s="8"/>
       <c r="P30" s="5" t="s">
@@ -6964,10 +7204,10 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -6978,7 +7218,7 @@
         <v>158</v>
       </c>
       <c r="Y30" s="8" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8" t="s">
@@ -6990,55 +7230,55 @@
       </c>
       <c r="AD30" s="8"/>
       <c r="AE30" s="8" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="AF30" s="5" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="AG30" s="5" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AH30" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI30" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ30" s="8" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AK30" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL30" s="5" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="AM30" s="5" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="AN30" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AO30" s="5" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="AP30" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ30" s="5" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="AR30" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AS30" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT30" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU30" s="5" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="AV30" s="5" t="s">
         <v>470</v>
@@ -7059,7 +7299,7 @@
         <v>595</v>
       </c>
       <c r="BB30" s="6" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="BC30" s="6" t="s">
         <v>642</v>
@@ -7079,13 +7319,13 @@
         <v>72</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8" t="s">
@@ -7104,11 +7344,11 @@
         <v>115</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O31" s="8"/>
       <c r="P31" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
@@ -7116,7 +7356,7 @@
         <v>105</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -7127,7 +7367,7 @@
         <v>158</v>
       </c>
       <c r="Y31" s="8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8" t="s">
@@ -7139,43 +7379,43 @@
       </c>
       <c r="AD31" s="8"/>
       <c r="AE31" s="8" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="AF31" s="5" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="AG31" s="5" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AH31" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI31" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ31" s="8" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AK31" s="8" t="s">
         <v>326</v>
       </c>
       <c r="AL31" s="5" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="AM31" s="5" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AN31" s="5" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AO31" s="5" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="AP31" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ31" s="5" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="AR31" s="5" t="s">
         <v>527</v>
@@ -7184,10 +7424,10 @@
         <v>530</v>
       </c>
       <c r="AT31" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU31" s="5" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="AV31" s="5" t="s">
         <v>470</v>
@@ -7208,30 +7448,28 @@
         <v>595</v>
       </c>
       <c r="BB31" s="6" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="BC31" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="32" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:55" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>105</v>
@@ -7241,7 +7479,7 @@
         <v>108</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>111</v>
@@ -7253,19 +7491,19 @@
         <v>115</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O32" s="8"/>
       <c r="P32" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -7273,10 +7511,10 @@
         <v>117</v>
       </c>
       <c r="X32" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y32" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8" t="s">
@@ -7287,9 +7525,15 @@
         <v>179</v>
       </c>
       <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
+      <c r="AE32" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF32" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG32" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="AH32" s="8" t="s">
         <v>302</v>
       </c>
@@ -7297,34 +7541,82 @@
         <v>302</v>
       </c>
       <c r="AJ32" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="8"/>
-      <c r="AQ32" s="5"/>
+        <v>311</v>
+      </c>
+      <c r="AK32" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="AL32" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM32" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="AN32" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="AO32" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="AP32" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="AQ32" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR32" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="AS32" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="AT32" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="AU32" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="AV32" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="AW32" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="AX32" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="AY32" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="AZ32" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="BA32" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="BB32" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="BC32" s="6" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="33" spans="1:55" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>105</v>
@@ -7334,7 +7626,7 @@
         <v>108</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>111</v>
@@ -7343,22 +7635,22 @@
         <v>113</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O33" s="8"/>
       <c r="P33" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T33" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
@@ -7366,10 +7658,10 @@
         <v>117</v>
       </c>
       <c r="X33" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y33" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8" t="s">
@@ -7380,9 +7672,15 @@
         <v>179</v>
       </c>
       <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
+      <c r="AE33" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF33" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG33" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="AH33" s="8" t="s">
         <v>302</v>
       </c>
@@ -7390,34 +7688,82 @@
         <v>302</v>
       </c>
       <c r="AJ33" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="8"/>
-      <c r="AQ33" s="5"/>
-    </row>
-    <row r="34" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+      <c r="AK33" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="AL33" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="AM33" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AN33" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="AO33" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="AP33" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="AQ33" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR33" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="AS33" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="AT33" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="AU33" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="AV33" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="AW33" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="AX33" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="AY33" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="AZ33" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="BA33" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="BB33" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="BC33" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="34" spans="1:55" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>105</v>
@@ -7427,7 +7773,7 @@
         <v>108</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>111</v>
@@ -7436,10 +7782,10 @@
         <v>113</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="O34" s="8"/>
       <c r="P34" s="5" t="s">
@@ -7451,7 +7797,7 @@
         <v>107</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
@@ -7459,10 +7805,10 @@
         <v>117</v>
       </c>
       <c r="X34" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y34" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8" t="s">
@@ -7474,58 +7820,58 @@
       </c>
       <c r="AD34" s="8"/>
       <c r="AE34" s="8" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AF34" s="5" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AG34" s="5" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AH34" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI34" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ34" s="8" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="AK34" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL34" s="5" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AM34" s="5" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="AN34" s="5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AO34" s="5" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="AP34" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AQ34" s="5" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="AR34" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AS34" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AT34" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU34" s="5" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="AV34" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AW34" s="5" t="s">
         <v>587</v>
@@ -7543,40 +7889,38 @@
         <v>595</v>
       </c>
       <c r="BB34" s="6" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="BC34" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="35" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:55" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>111</v>
@@ -7585,22 +7929,22 @@
         <v>113</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O35" s="8"/>
       <c r="P35" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
@@ -7608,10 +7952,10 @@
         <v>117</v>
       </c>
       <c r="X35" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y35" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8" t="s">
@@ -7623,13 +7967,13 @@
       </c>
       <c r="AD35" s="8"/>
       <c r="AE35" s="8" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="AF35" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AG35" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AH35" s="8" t="s">
         <v>302</v>
@@ -7638,40 +7982,40 @@
         <v>302</v>
       </c>
       <c r="AJ35" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AK35" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AL35" s="5" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="AM35" s="5" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AN35" s="5" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AO35" s="5" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="AP35" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ35" s="5" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="AR35" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AS35" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT35" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AU35" s="5" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="AV35" s="5" t="s">
         <v>470</v>
@@ -7680,10 +8024,10 @@
         <v>587</v>
       </c>
       <c r="AX35" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY35" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ35" s="5" t="s">
         <v>594</v>
@@ -7692,40 +8036,38 @@
         <v>595</v>
       </c>
       <c r="BB35" s="6" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="BC35" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="36" spans="1:55" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:55" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>111</v>
@@ -7734,22 +8076,22 @@
         <v>113</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O36" s="8"/>
       <c r="P36" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
@@ -7757,10 +8099,10 @@
         <v>117</v>
       </c>
       <c r="X36" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y36" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8" t="s">
@@ -7772,13 +8114,13 @@
       </c>
       <c r="AD36" s="8"/>
       <c r="AE36" s="8" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="AF36" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AG36" s="5" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="AH36" s="8" t="s">
         <v>302</v>
@@ -7787,40 +8129,38 @@
         <v>302</v>
       </c>
       <c r="AJ36" s="8" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AK36" s="8" t="s">
         <v>324</v>
       </c>
       <c r="AL36" s="5" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="AM36" s="5" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AN36" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="AO36" s="5" t="s">
-        <v>448</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="AO36" s="5"/>
       <c r="AP36" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AQ36" s="5" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="AR36" s="5" t="s">
         <v>524</v>
       </c>
       <c r="AS36" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AT36" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AU36" s="5" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="AV36" s="5" t="s">
         <v>470</v>
@@ -7829,10 +8169,10 @@
         <v>587</v>
       </c>
       <c r="AX36" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY36" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ36" s="5" t="s">
         <v>594</v>
@@ -7841,13 +8181,13 @@
         <v>595</v>
       </c>
       <c r="BB36" s="6" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="BC36" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="37" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:55" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>60</v>
       </c>
@@ -7861,13 +8201,13 @@
         <v>72</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8" t="s">
@@ -7883,14 +8223,14 @@
         <v>113</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
@@ -7898,7 +8238,7 @@
         <v>105</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
@@ -7909,7 +8249,7 @@
         <v>158</v>
       </c>
       <c r="Y37" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8" t="s">
@@ -7921,55 +8261,53 @@
       </c>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AF37" s="5" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AG37" s="5" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AH37" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI37" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ37" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AK37" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL37" s="5" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="AM37" s="5" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AN37" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="AO37" s="5" t="s">
-        <v>449</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="AO37" s="5"/>
       <c r="AP37" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AQ37" s="5" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="AR37" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AS37" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AT37" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AU37" s="5" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="AV37" s="5" t="s">
         <v>470</v>
@@ -7978,10 +8316,10 @@
         <v>587</v>
       </c>
       <c r="AX37" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY37" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ37" s="5" t="s">
         <v>594</v>
@@ -7990,13 +8328,13 @@
         <v>595</v>
       </c>
       <c r="BB37" s="6" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="BC37" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="38" spans="1:55" ht="144" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:55" ht="216" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>60</v>
       </c>
@@ -8010,13 +8348,13 @@
         <v>72</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8" t="s">
@@ -8032,14 +8370,14 @@
         <v>113</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
@@ -8047,7 +8385,7 @@
         <v>105</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
@@ -8058,7 +8396,7 @@
         <v>158</v>
       </c>
       <c r="Y38" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8" t="s">
@@ -8070,55 +8408,53 @@
       </c>
       <c r="AD38" s="8"/>
       <c r="AE38" s="8" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AF38" s="5" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG38" s="5" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AH38" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI38" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ38" s="8" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AK38" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AL38" s="5" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="AM38" s="5" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AN38" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="AO38" s="5" t="s">
-        <v>450</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="AO38" s="5"/>
       <c r="AP38" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ38" s="5" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="AR38" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AS38" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT38" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AU38" s="5" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="AV38" s="5" t="s">
         <v>470</v>
@@ -8127,10 +8463,10 @@
         <v>587</v>
       </c>
       <c r="AX38" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY38" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ38" s="5" t="s">
         <v>594</v>
@@ -8139,7 +8475,7 @@
         <v>595</v>
       </c>
       <c r="BB38" s="6" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="BC38" s="6" t="s">
         <v>642</v>
@@ -8159,13 +8495,13 @@
         <v>72</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8" t="s">
@@ -8181,14 +8517,14 @@
         <v>113</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c r="P39" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
@@ -8196,7 +8532,7 @@
         <v>105</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
@@ -8207,7 +8543,7 @@
         <v>158</v>
       </c>
       <c r="Y39" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8" t="s">
@@ -8219,55 +8555,55 @@
       </c>
       <c r="AD39" s="8"/>
       <c r="AE39" s="8" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="AF39" s="5" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="AG39" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AH39" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI39" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ39" s="8" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="AK39" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL39" s="5" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="AM39" s="5" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="AN39" s="5" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="AO39" s="5" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="AP39" s="8" t="s">
         <v>470</v>
       </c>
       <c r="AQ39" s="5" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="AR39" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AS39" s="5" t="s">
         <v>532</v>
       </c>
       <c r="AT39" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AU39" s="5" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="AV39" s="5" t="s">
         <v>470</v>
@@ -8276,10 +8612,10 @@
         <v>587</v>
       </c>
       <c r="AX39" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY39" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ39" s="5" t="s">
         <v>594</v>
@@ -8288,13 +8624,13 @@
         <v>595</v>
       </c>
       <c r="BB39" s="6" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="BC39" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="40" spans="1:55" ht="144" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:55" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>60</v>
       </c>
@@ -8308,10 +8644,10 @@
         <v>72</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>105</v>
@@ -8330,14 +8666,14 @@
         <v>113</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
@@ -8345,7 +8681,7 @@
         <v>105</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
@@ -8356,7 +8692,7 @@
         <v>158</v>
       </c>
       <c r="Y40" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8" t="s">
@@ -8368,13 +8704,13 @@
       </c>
       <c r="AD40" s="8"/>
       <c r="AE40" s="8" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AG40" s="5" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="AH40" s="8" t="s">
         <v>303</v>
@@ -8383,52 +8719,52 @@
         <v>303</v>
       </c>
       <c r="AJ40" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AK40" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL40" s="5" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="AM40" s="5" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AN40" s="5" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="AO40" s="5" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="AP40" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AQ40" s="5" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AR40" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AS40" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AT40" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU40" s="5" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="AV40" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AW40" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX40" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY40" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ40" s="5" t="s">
         <v>594</v>
@@ -8437,13 +8773,13 @@
         <v>595</v>
       </c>
       <c r="BB40" s="6" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="BC40" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="41" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:55" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>60</v>
       </c>
@@ -8457,10 +8793,10 @@
         <v>72</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>105</v>
@@ -8479,14 +8815,14 @@
         <v>113</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c r="P41" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
@@ -8494,7 +8830,7 @@
         <v>105</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
@@ -8505,7 +8841,7 @@
         <v>158</v>
       </c>
       <c r="Y41" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8" t="s">
@@ -8517,13 +8853,13 @@
       </c>
       <c r="AD41" s="8"/>
       <c r="AE41" s="8" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="AF41" s="5" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AG41" s="5" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="AH41" s="8" t="s">
         <v>303</v>
@@ -8532,52 +8868,50 @@
         <v>303</v>
       </c>
       <c r="AJ41" s="8" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AK41" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AL41" s="5" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="AM41" s="5" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="AN41" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="AO41" s="5" t="s">
-        <v>453</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="AO41" s="5"/>
       <c r="AP41" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ41" s="5" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="AR41" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AS41" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT41" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU41" s="5" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="AV41" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AW41" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX41" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY41" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ41" s="5" t="s">
         <v>594</v>
@@ -8586,7 +8920,7 @@
         <v>595</v>
       </c>
       <c r="BB41" s="6" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="BC41" s="6" t="s">
         <v>642</v>
@@ -8606,10 +8940,10 @@
         <v>72</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>105</v>
@@ -8628,14 +8962,14 @@
         <v>113</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c r="P42" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
@@ -8643,7 +8977,7 @@
         <v>105</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
@@ -8654,7 +8988,7 @@
         <v>158</v>
       </c>
       <c r="Y42" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8" t="s">
@@ -8666,10 +9000,10 @@
       </c>
       <c r="AD42" s="8"/>
       <c r="AE42" s="8" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AF42" s="5" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AG42" s="5" t="s">
         <v>277</v>
@@ -8681,40 +9015,40 @@
         <v>303</v>
       </c>
       <c r="AJ42" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AK42" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL42" s="5" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="AM42" s="5" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="AN42" s="5" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="AO42" s="5" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="AP42" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ42" s="5" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="AR42" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AS42" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT42" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU42" s="5" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="AV42" s="5" t="s">
         <v>468</v>
@@ -8723,10 +9057,10 @@
         <v>587</v>
       </c>
       <c r="AX42" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY42" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ42" s="5" t="s">
         <v>594</v>
@@ -8735,7 +9069,7 @@
         <v>595</v>
       </c>
       <c r="BB42" s="6" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="BC42" s="6" t="s">
         <v>642</v>
@@ -8755,10 +9089,10 @@
         <v>72</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>105</v>
@@ -8777,14 +9111,14 @@
         <v>113</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c r="P43" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
@@ -8792,7 +9126,7 @@
         <v>105</v>
       </c>
       <c r="T43" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
@@ -8803,7 +9137,7 @@
         <v>158</v>
       </c>
       <c r="Y43" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8" t="s">
@@ -8815,10 +9149,10 @@
       </c>
       <c r="AD43" s="8"/>
       <c r="AE43" s="8" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AF43" s="5" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="AG43" s="5" t="s">
         <v>277</v>
@@ -8830,28 +9164,28 @@
         <v>303</v>
       </c>
       <c r="AJ43" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AK43" s="8" t="s">
         <v>324</v>
       </c>
       <c r="AL43" s="5" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="AM43" s="5" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="AN43" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AO43" s="5" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="AP43" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ43" s="5" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="AR43" s="5" t="s">
         <v>528</v>
@@ -8860,10 +9194,10 @@
         <v>530</v>
       </c>
       <c r="AT43" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU43" s="5" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="AV43" s="5" t="s">
         <v>468</v>
@@ -8872,10 +9206,10 @@
         <v>587</v>
       </c>
       <c r="AX43" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY43" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ43" s="5" t="s">
         <v>594</v>
@@ -8884,7 +9218,7 @@
         <v>595</v>
       </c>
       <c r="BB43" s="6" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="BC43" s="6" t="s">
         <v>642</v>
@@ -8904,10 +9238,10 @@
         <v>72</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>105</v>
@@ -8926,14 +9260,14 @@
         <v>113</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
@@ -8941,7 +9275,7 @@
         <v>105</v>
       </c>
       <c r="T44" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
@@ -8952,7 +9286,7 @@
         <v>158</v>
       </c>
       <c r="Y44" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8" t="s">
@@ -8964,10 +9298,10 @@
       </c>
       <c r="AD44" s="8"/>
       <c r="AE44" s="8" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AF44" s="5" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AG44" s="5" t="s">
         <v>277</v>
@@ -8979,28 +9313,28 @@
         <v>303</v>
       </c>
       <c r="AJ44" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AK44" s="8" t="s">
         <v>324</v>
       </c>
       <c r="AL44" s="5" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="AM44" s="5" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="AN44" s="5" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="AO44" s="5" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="AP44" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ44" s="5" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="AR44" s="5" t="s">
         <v>528</v>
@@ -9009,10 +9343,10 @@
         <v>530</v>
       </c>
       <c r="AT44" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU44" s="5" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="AV44" s="5" t="s">
         <v>468</v>
@@ -9021,10 +9355,10 @@
         <v>587</v>
       </c>
       <c r="AX44" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY44" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ44" s="5" t="s">
         <v>594</v>
@@ -9033,7 +9367,7 @@
         <v>595</v>
       </c>
       <c r="BB44" s="6" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="BC44" s="6" t="s">
         <v>642</v>
@@ -9053,10 +9387,10 @@
         <v>72</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>105</v>
@@ -9078,11 +9412,11 @@
         <v>115</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c r="P45" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
@@ -9090,7 +9424,7 @@
         <v>105</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
@@ -9101,7 +9435,7 @@
         <v>158</v>
       </c>
       <c r="Y45" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8" t="s">
@@ -9113,13 +9447,13 @@
       </c>
       <c r="AD45" s="8"/>
       <c r="AE45" s="8" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AF45" s="5" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AG45" s="5" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="AH45" s="8" t="s">
         <v>303</v>
@@ -9128,52 +9462,52 @@
         <v>303</v>
       </c>
       <c r="AJ45" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AK45" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL45" s="5" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="AM45" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN45" s="5" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="AO45" s="5" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="AP45" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AQ45" s="5" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="AR45" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AS45" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AT45" s="5" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="AU45" s="5" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="AV45" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AW45" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX45" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY45" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ45" s="5" t="s">
         <v>594</v>
@@ -9182,13 +9516,13 @@
         <v>595</v>
       </c>
       <c r="BB45" s="6" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="BC45" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="46" spans="1:55" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:55" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>60</v>
       </c>
@@ -9202,10 +9536,10 @@
         <v>72</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>105</v>
@@ -9227,11 +9561,11 @@
         <v>115</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c r="P46" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
@@ -9239,7 +9573,7 @@
         <v>105</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
@@ -9250,7 +9584,7 @@
         <v>158</v>
       </c>
       <c r="Y46" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8" t="s">
@@ -9262,13 +9596,13 @@
       </c>
       <c r="AD46" s="8"/>
       <c r="AE46" s="8" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AF46" s="5" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AG46" s="5" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="AH46" s="8" t="s">
         <v>303</v>
@@ -9277,52 +9611,52 @@
         <v>303</v>
       </c>
       <c r="AJ46" s="8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AK46" s="8" t="s">
         <v>326</v>
       </c>
       <c r="AL46" s="5" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="AM46" s="5" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="AN46" s="5" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AO46" s="5" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="AP46" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ46" s="5" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="AR46" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AS46" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT46" s="5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AU46" s="5" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="AV46" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AW46" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX46" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY46" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AZ46" s="5" t="s">
         <v>594</v>
@@ -9331,64 +9665,62 @@
         <v>595</v>
       </c>
       <c r="BB46" s="6" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="BC46" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="47" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:55" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>111</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O47" s="8"/>
       <c r="P47" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="T47" s="8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
@@ -9396,10 +9728,10 @@
         <v>117</v>
       </c>
       <c r="X47" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Y47" s="8" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8" t="s">
@@ -9410,134 +9742,78 @@
         <v>179</v>
       </c>
       <c r="AD47" s="8"/>
-      <c r="AE47" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF47" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG47" s="5" t="s">
-        <v>296</v>
-      </c>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
       <c r="AH47" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI47" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ47" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="AK47" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="AL47" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="AM47" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="AN47" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="AO47" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AP47" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="AQ47" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="AR47" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="AS47" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="AT47" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="AU47" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="AV47" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AW47" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="AX47" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="AY47" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="AZ47" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="BA47" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="BB47" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="BC47" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="48" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="8"/>
+      <c r="AQ47" s="5"/>
+    </row>
+    <row r="48" spans="1:55" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>111</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O48" s="8"/>
       <c r="P48" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="T48" s="8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
@@ -9545,10 +9821,10 @@
         <v>117</v>
       </c>
       <c r="X48" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y48" s="8" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8" t="s">
@@ -9559,134 +9835,78 @@
         <v>179</v>
       </c>
       <c r="AD48" s="8"/>
-      <c r="AE48" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AF48" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG48" s="5" t="s">
-        <v>297</v>
-      </c>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
       <c r="AH48" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI48" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ48" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="AK48" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="AL48" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="AM48" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="AN48" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="AO48" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="AP48" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="AQ48" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="AR48" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="AS48" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="AT48" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="AU48" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="AV48" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AW48" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="AX48" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="AY48" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="AZ48" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="BA48" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="BB48" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="BC48" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="49" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="8"/>
+      <c r="AQ48" s="5"/>
+    </row>
+    <row r="49" spans="1:55" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>111</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="T49" s="8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="U49" s="8"/>
       <c r="V49" s="8"/>
@@ -9694,10 +9914,10 @@
         <v>117</v>
       </c>
       <c r="X49" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y49" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8" t="s">
@@ -9708,134 +9928,76 @@
         <v>179</v>
       </c>
       <c r="AD49" s="8"/>
-      <c r="AE49" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF49" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="AG49" s="5" t="s">
-        <v>288</v>
-      </c>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
       <c r="AH49" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI49" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ49" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="AK49" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="AL49" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="AM49" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="AN49" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="AO49" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="AP49" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="AQ49" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="AR49" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="AS49" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="AT49" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="AU49" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="AV49" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AW49" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="AX49" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="AY49" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="AZ49" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="BA49" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="BB49" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="BC49" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="50" spans="1:55" ht="259.2" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="8"/>
+      <c r="AQ49" s="5"/>
+    </row>
+    <row r="50" spans="1:55" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>111</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="8" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="U50" s="8"/>
       <c r="V50" s="8"/>
@@ -9843,10 +10005,10 @@
         <v>117</v>
       </c>
       <c r="X50" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Y50" s="8" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8" t="s">
@@ -9857,81 +10019,27 @@
         <v>179</v>
       </c>
       <c r="AD50" s="8"/>
-      <c r="AE50" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF50" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG50" s="5" t="s">
-        <v>298</v>
-      </c>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
       <c r="AH50" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI50" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ50" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK50" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="AL50" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AM50" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="AN50" s="5" t="s">
-        <v>422</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
       <c r="AO50" s="5"/>
-      <c r="AP50" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="AQ50" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="AR50" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="AS50" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="AT50" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="AU50" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="AV50" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AW50" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="AX50" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="AY50" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="AZ50" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="BA50" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="BB50" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="BC50" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="51" spans="1:55" ht="216" x14ac:dyDescent="0.3">
+      <c r="AP50" s="8"/>
+      <c r="AQ50" s="5"/>
+    </row>
+    <row r="51" spans="1:55" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>60</v>
       </c>
@@ -9945,10 +10053,10 @@
         <v>72</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>105</v>
@@ -9970,11 +10078,11 @@
         <v>115</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O51" s="8"/>
       <c r="P51" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
@@ -9982,7 +10090,7 @@
         <v>105</v>
       </c>
       <c r="T51" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="U51" s="8"/>
       <c r="V51" s="8"/>
@@ -9993,7 +10101,7 @@
         <v>158</v>
       </c>
       <c r="Y51" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8" t="s">
@@ -10004,81 +10112,27 @@
         <v>179</v>
       </c>
       <c r="AD51" s="8"/>
-      <c r="AE51" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF51" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG51" s="5" t="s">
-        <v>299</v>
-      </c>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
       <c r="AH51" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI51" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ51" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="AK51" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="AL51" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="AM51" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="AN51" s="5" t="s">
-        <v>402</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
       <c r="AO51" s="5"/>
-      <c r="AP51" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="AQ51" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="AR51" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="AS51" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="AT51" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="AU51" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="AV51" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AW51" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="AX51" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="AY51" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="AZ51" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="BA51" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="BB51" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="BC51" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="52" spans="1:55" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="AP51" s="8"/>
+      <c r="AQ51" s="5"/>
+    </row>
+    <row r="52" spans="1:55" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>60</v>
       </c>
@@ -10092,10 +10146,10 @@
         <v>72</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>105</v>
@@ -10114,14 +10168,14 @@
         <v>113</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
@@ -10129,7 +10183,7 @@
         <v>105</v>
       </c>
       <c r="T52" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
@@ -10140,7 +10194,7 @@
         <v>158</v>
       </c>
       <c r="Y52" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8" t="s">
@@ -10151,83 +10205,27 @@
         <v>179</v>
       </c>
       <c r="AD52" s="8"/>
-      <c r="AE52" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF52" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG52" s="5" t="s">
-        <v>300</v>
-      </c>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
       <c r="AH52" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI52" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ52" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AK52" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="AL52" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="AM52" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="AN52" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AO52" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="AP52" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="AQ52" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="AR52" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="AS52" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="AT52" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="AU52" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="AV52" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AW52" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="AX52" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="AY52" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="AZ52" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="BA52" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="BB52" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="BC52" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="53" spans="1:55" ht="129.6" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="8"/>
+      <c r="AQ52" s="5"/>
+    </row>
+    <row r="53" spans="1:55" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>60</v>
       </c>
@@ -10241,10 +10239,10 @@
         <v>72</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>105</v>
@@ -10266,11 +10264,11 @@
         <v>115</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="O53" s="8"/>
       <c r="P53" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
@@ -10278,7 +10276,7 @@
         <v>105</v>
       </c>
       <c r="T53" s="8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="U53" s="8"/>
       <c r="V53" s="8"/>
@@ -10289,7 +10287,7 @@
         <v>158</v>
       </c>
       <c r="Y53" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8" t="s">
@@ -10301,13 +10299,13 @@
       </c>
       <c r="AD53" s="8"/>
       <c r="AE53" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AF53" s="5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AG53" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AH53" s="8" t="s">
         <v>303</v>
@@ -10316,40 +10314,40 @@
         <v>303</v>
       </c>
       <c r="AJ53" s="8" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AK53" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL53" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AM53" s="5" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AN53" s="5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AO53" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AP53" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AQ53" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AR53" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AS53" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AT53" s="5" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="AU53" s="5" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="AV53" s="5" t="s">
         <v>470</v>
@@ -10358,10 +10356,10 @@
         <v>587</v>
       </c>
       <c r="AX53" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY53" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ53" s="5" t="s">
         <v>594</v>
@@ -10370,13 +10368,13 @@
         <v>595</v>
       </c>
       <c r="BB53" s="6" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="BC53" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="54" spans="1:55" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:55" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>60</v>
       </c>
@@ -10390,10 +10388,10 @@
         <v>72</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>105</v>
@@ -10415,11 +10413,11 @@
         <v>115</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="O54" s="8"/>
       <c r="P54" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
@@ -10427,7 +10425,7 @@
         <v>105</v>
       </c>
       <c r="T54" s="8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
@@ -10438,7 +10436,7 @@
         <v>158</v>
       </c>
       <c r="Y54" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z54" s="8"/>
       <c r="AA54" s="8" t="s">
@@ -10450,13 +10448,13 @@
       </c>
       <c r="AD54" s="8"/>
       <c r="AE54" s="8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AF54" s="5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AG54" s="5" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="AH54" s="8" t="s">
         <v>303</v>
@@ -10465,26 +10463,28 @@
         <v>303</v>
       </c>
       <c r="AJ54" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AK54" s="8" t="s">
         <v>326</v>
       </c>
       <c r="AL54" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AM54" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AN54" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="AO54" s="5"/>
+        <v>420</v>
+      </c>
+      <c r="AO54" s="5" t="s">
+        <v>458</v>
+      </c>
       <c r="AP54" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ54" s="5" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AR54" s="5" t="s">
         <v>527</v>
@@ -10493,10 +10493,10 @@
         <v>530</v>
       </c>
       <c r="AT54" s="5" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="AU54" s="5" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AV54" s="5" t="s">
         <v>470</v>
@@ -10505,10 +10505,10 @@
         <v>587</v>
       </c>
       <c r="AX54" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY54" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ54" s="5" t="s">
         <v>594</v>
@@ -10517,7 +10517,7 @@
         <v>595</v>
       </c>
       <c r="BB54" s="6" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="BC54" s="6" t="s">
         <v>642</v>
@@ -10537,10 +10537,10 @@
         <v>72</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>105</v>
@@ -10562,11 +10562,11 @@
         <v>115</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O55" s="8"/>
       <c r="P55" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
@@ -10574,7 +10574,7 @@
         <v>105</v>
       </c>
       <c r="T55" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
@@ -10585,7 +10585,7 @@
         <v>158</v>
       </c>
       <c r="Y55" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8" t="s">
@@ -10597,13 +10597,13 @@
       </c>
       <c r="AD55" s="8"/>
       <c r="AE55" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AF55" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AG55" s="5" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="AH55" s="8" t="s">
         <v>303</v>
@@ -10612,52 +10612,52 @@
         <v>303</v>
       </c>
       <c r="AJ55" s="8" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AK55" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL55" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AM55" s="5" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="AN55" s="5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AO55" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AP55" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ55" s="5" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AR55" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AS55" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT55" s="5" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="AU55" s="5" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="AV55" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AW55" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX55" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY55" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ55" s="5" t="s">
         <v>594</v>
@@ -10666,7 +10666,7 @@
         <v>595</v>
       </c>
       <c r="BB55" s="6" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="BC55" s="6" t="s">
         <v>642</v>
@@ -10686,10 +10686,10 @@
         <v>72</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>105</v>
@@ -10711,11 +10711,11 @@
         <v>115</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O56" s="8"/>
       <c r="P56" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
@@ -10723,7 +10723,7 @@
         <v>105</v>
       </c>
       <c r="T56" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
@@ -10734,7 +10734,7 @@
         <v>158</v>
       </c>
       <c r="Y56" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8" t="s">
@@ -10746,13 +10746,13 @@
       </c>
       <c r="AD56" s="8"/>
       <c r="AE56" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AF56" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AG56" s="5" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="AH56" s="8" t="s">
         <v>303</v>
@@ -10761,52 +10761,52 @@
         <v>303</v>
       </c>
       <c r="AJ56" s="8" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="AK56" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AL56" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AM56" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="AN56" s="5" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="AO56" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AP56" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ56" s="5" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AR56" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AS56" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT56" s="5" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="AU56" s="5" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="AV56" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AW56" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX56" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY56" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ56" s="5" t="s">
         <v>594</v>
@@ -10815,7 +10815,7 @@
         <v>595</v>
       </c>
       <c r="BB56" s="6" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="BC56" s="6" t="s">
         <v>642</v>
@@ -10835,10 +10835,10 @@
         <v>72</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>105</v>
@@ -10860,11 +10860,11 @@
         <v>115</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O57" s="8"/>
       <c r="P57" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
@@ -10872,7 +10872,7 @@
         <v>105</v>
       </c>
       <c r="T57" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
@@ -10883,7 +10883,7 @@
         <v>158</v>
       </c>
       <c r="Y57" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8" t="s">
@@ -10895,13 +10895,13 @@
       </c>
       <c r="AD57" s="8"/>
       <c r="AE57" s="8" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="AF57" s="5" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="AG57" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AH57" s="8" t="s">
         <v>303</v>
@@ -10910,52 +10910,52 @@
         <v>303</v>
       </c>
       <c r="AJ57" s="8" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AK57" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AL57" s="5" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="AM57" s="5" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="AN57" s="5" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AO57" s="5" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="AP57" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ57" s="5" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="AR57" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AS57" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT57" s="5" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="AU57" s="5" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="AV57" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AW57" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX57" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY57" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ57" s="5" t="s">
         <v>594</v>
@@ -10964,13 +10964,13 @@
         <v>595</v>
       </c>
       <c r="BB57" s="6" t="s">
-        <v>639</v>
+        <v>617</v>
       </c>
       <c r="BC57" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="58" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>60</v>
       </c>
@@ -10984,13 +10984,13 @@
         <v>72</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8" t="s">
@@ -11006,14 +11006,14 @@
         <v>113</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O58" s="8"/>
       <c r="P58" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
@@ -11021,7 +11021,7 @@
         <v>105</v>
       </c>
       <c r="T58" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
@@ -11032,7 +11032,7 @@
         <v>158</v>
       </c>
       <c r="Y58" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Z58" s="8"/>
       <c r="AA58" s="8" t="s">
@@ -11044,67 +11044,67 @@
       </c>
       <c r="AD58" s="8"/>
       <c r="AE58" s="8" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="AF58" s="5" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="AG58" s="5" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AH58" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI58" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ58" s="8" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AK58" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AL58" s="5" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="AM58" s="5" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="AN58" s="5" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="AO58" s="5" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="AP58" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ58" s="5" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="AR58" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AS58" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT58" s="5" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AU58" s="5" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="AV58" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AW58" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX58" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY58" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ58" s="5" t="s">
         <v>594</v>
@@ -11113,13 +11113,13 @@
         <v>595</v>
       </c>
       <c r="BB58" s="6" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="BC58" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="59" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:55" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>60</v>
       </c>
@@ -11133,13 +11133,13 @@
         <v>72</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8" t="s">
@@ -11155,14 +11155,14 @@
         <v>113</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O59" s="8"/>
       <c r="P59" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
@@ -11170,7 +11170,7 @@
         <v>105</v>
       </c>
       <c r="T59" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
@@ -11181,7 +11181,7 @@
         <v>158</v>
       </c>
       <c r="Y59" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8" t="s">
@@ -11193,67 +11193,67 @@
       </c>
       <c r="AD59" s="8"/>
       <c r="AE59" s="8" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="AF59" s="5" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="AG59" s="5" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AH59" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI59" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ59" s="8" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="AK59" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AL59" s="5" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="AM59" s="5" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="AN59" s="5" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="AO59" s="5" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="AP59" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AQ59" s="5" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="AR59" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AS59" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AT59" s="5" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AU59" s="5" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="AV59" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AW59" s="5" t="s">
         <v>587</v>
       </c>
       <c r="AX59" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY59" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ59" s="5" t="s">
         <v>594</v>
@@ -11262,7 +11262,7 @@
         <v>595</v>
       </c>
       <c r="BB59" s="6" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="BC59" s="6" t="s">
         <v>642</v>
@@ -11282,13 +11282,13 @@
         <v>72</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8" t="s">
@@ -11304,14 +11304,14 @@
         <v>113</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O60" s="8"/>
       <c r="P60" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
@@ -11319,7 +11319,7 @@
         <v>105</v>
       </c>
       <c r="T60" s="8" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
@@ -11330,7 +11330,7 @@
         <v>158</v>
       </c>
       <c r="Y60" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8" t="s">
@@ -11342,55 +11342,55 @@
       </c>
       <c r="AD60" s="8"/>
       <c r="AE60" s="8" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="AF60" s="5" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="AG60" s="5" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="AH60" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI60" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ60" s="8" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AK60" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AL60" s="5" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="AM60" s="5" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="AN60" s="5" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AO60" s="5" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="AP60" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ60" s="5" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="AR60" s="5" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AS60" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT60" s="5" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AU60" s="5" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="AV60" s="5" t="s">
         <v>470</v>
@@ -11399,10 +11399,10 @@
         <v>587</v>
       </c>
       <c r="AX60" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY60" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ60" s="5" t="s">
         <v>594</v>
@@ -11411,13 +11411,13 @@
         <v>595</v>
       </c>
       <c r="BB60" s="6" t="s">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="BC60" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="61" spans="1:55" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:55" ht="144" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>60</v>
       </c>
@@ -11431,13 +11431,13 @@
         <v>72</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8" t="s">
@@ -11453,14 +11453,14 @@
         <v>113</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O61" s="8"/>
       <c r="P61" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
@@ -11468,7 +11468,7 @@
         <v>105</v>
       </c>
       <c r="T61" s="8" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
@@ -11479,7 +11479,7 @@
         <v>158</v>
       </c>
       <c r="Y61" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8" t="s">
@@ -11491,55 +11491,55 @@
       </c>
       <c r="AD61" s="8"/>
       <c r="AE61" s="8" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="AF61" s="5" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="AG61" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AH61" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI61" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ61" s="8" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AK61" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL61" s="5" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="AM61" s="5" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="AN61" s="5" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="AO61" s="5" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="AP61" s="8" t="s">
         <v>468</v>
       </c>
       <c r="AQ61" s="5" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="AR61" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AS61" s="5" t="s">
         <v>530</v>
       </c>
       <c r="AT61" s="5" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AU61" s="5" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="AV61" s="5" t="s">
         <v>470</v>
@@ -11548,10 +11548,10 @@
         <v>587</v>
       </c>
       <c r="AX61" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY61" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ61" s="5" t="s">
         <v>594</v>
@@ -11560,13 +11560,13 @@
         <v>595</v>
       </c>
       <c r="BB61" s="6" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="BC61" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="62" spans="1:55" ht="72" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:55" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>60</v>
       </c>
@@ -11580,13 +11580,13 @@
         <v>72</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8" t="s">
@@ -11602,14 +11602,14 @@
         <v>113</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O62" s="8"/>
       <c r="P62" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
@@ -11617,7 +11617,7 @@
         <v>105</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
@@ -11628,7 +11628,7 @@
         <v>158</v>
       </c>
       <c r="Y62" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z62" s="8"/>
       <c r="AA62" s="8" t="s">
@@ -11640,55 +11640,55 @@
       </c>
       <c r="AD62" s="8"/>
       <c r="AE62" s="8" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="AF62" s="5" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="AG62" s="5" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="AH62" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI62" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ62" s="8" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AK62" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AL62" s="5" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="AM62" s="5" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="AN62" s="5" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="AO62" s="5" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="AP62" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AQ62" s="5" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="AR62" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AS62" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AT62" s="5" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AU62" s="5" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="AV62" s="5" t="s">
         <v>470</v>
@@ -11697,10 +11697,10 @@
         <v>587</v>
       </c>
       <c r="AX62" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AY62" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AZ62" s="5" t="s">
         <v>594</v>
@@ -11709,124 +11709,133 @@
         <v>595</v>
       </c>
       <c r="BB62" s="6" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="BC62" s="6" t="s">
         <v>642</v>
       </c>
     </row>
+    <row r="63" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="F63" s="3">
+        <f>IF(COUNTIF($F$2:$F2, $F62) = 1, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:BD62">
+    <sortCondition ref="F1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="BB2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="BC2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="BB3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="BC3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="BB6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="BC6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="BB9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="BC9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="BB10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="BC10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="BB11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="BC11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="BB12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="BC12" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="BB13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="BC13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="BB14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="BC14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="BB15" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="BC15" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="BB16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="BC16" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="BB17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="BC17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="BB18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="BC18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="BB19" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="BC19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="BB20" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="BC20" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="BB21" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="BC21" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="BB22" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="BC22" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="BB23" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="BC23" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="BB24" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="BC24" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="BB25" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="BC25" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="BB26" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="BC26" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="BB27" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="BC27" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="BB28" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="BC28" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="BB29" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="BC29" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="BB30" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="BC30" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="BB31" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="BC31" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="BB34" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="BC34" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="BB35" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="BC35" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="BB36" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="BC36" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="BB37" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="BC37" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="BB38" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="BC38" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="BB39" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="BC39" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="BB40" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="BC40" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="BB41" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="BC41" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="BB42" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="BC42" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="BB43" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="BC43" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="BB44" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="BC44" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="BB45" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="BC45" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="BB46" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="BC46" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="BB47" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="BC47" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="BB48" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="BC48" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="BB49" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="BC49" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="BB50" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="BC50" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="BB51" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="BC51" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="BB52" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="BC52" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="BB53" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="BC53" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="BB54" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="BC54" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="BB55" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="BC55" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="BB56" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="BC56" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="BB57" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="BC57" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="BB58" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="BC58" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="BB59" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="BC59" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="BB60" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="BC60" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="BB61" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="BC61" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="BB62" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="BC62" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="BB25" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="BC25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="BB15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="BC15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="BB16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="BC16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="BB26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="BC26" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="BB27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="BC27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="BB28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="BC28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="BB2" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="BC2" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="BB3" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="BC3" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="BB4" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="BC4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="BB5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="BC5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="BB6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="BC6" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="BB32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="BC32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="BB33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="BC33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="BB34" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="BC34" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="BB35" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="BC35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="BB36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="BC36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="BB17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="BC17" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="BB20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="BC20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="BB21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="BC21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="BB22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="BC22" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="BB23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="BC23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="BB24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="BC24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="BB12" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="BC12" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="BB18" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="BC18" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="BB13" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="BC13" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="BB14" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="BC14" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="BB19" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="BC19" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="BB58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="BC58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="BB59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="BC59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="BB60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="BC60" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="BB61" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="BC61" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="BB62" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="BC62" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="BB7" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="BC7" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="BB8" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="BC8" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="BB9" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="BC9" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="BB10" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="BC10" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="BB11" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="BC11" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="BB53" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="BC53" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="BB54" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="BC54" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="BB55" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="BC55" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="BB56" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="BC56" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="BB57" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="BC57" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="BB37" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="BC37" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="BB38" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="BC38" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="BB39" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="BC39" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="BB40" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="BC40" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="BB41" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="BC41" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="BB42" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="BC42" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="BB43" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="BC43" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="BB44" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="BC44" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="BB45" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="BC45" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="BB46" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="BC46" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="BB29" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="BC29" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="BB30" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="BC30" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="BB31" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="BC31" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16569,8 +16578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
